--- a/Code/Results/Cases/Case_3_167/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_167/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.78898152681648</v>
+        <v>13.23879683272692</v>
       </c>
       <c r="C2">
-        <v>6.550830183091598</v>
+        <v>7.374573703866711</v>
       </c>
       <c r="D2">
-        <v>5.566748473356362</v>
+        <v>8.565971119110056</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>23.9210286426343</v>
+        <v>36.90773688216225</v>
       </c>
       <c r="G2">
-        <v>2.118696854656616</v>
+        <v>3.68644197314729</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>17.15772748193958</v>
+        <v>27.72940133636863</v>
       </c>
       <c r="J2">
-        <v>6.226488290910169</v>
+        <v>10.64593046196853</v>
       </c>
       <c r="K2">
-        <v>10.42959340038824</v>
+        <v>10.40890072525362</v>
       </c>
       <c r="L2">
-        <v>7.04985637747328</v>
+        <v>11.76800971398558</v>
       </c>
       <c r="M2">
-        <v>10.18271903529554</v>
+        <v>15.67100367630393</v>
       </c>
       <c r="N2">
-        <v>13.76547546699734</v>
+        <v>21.27667634020186</v>
       </c>
       <c r="O2">
-        <v>17.74908324311916</v>
+        <v>28.21702627328564</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.02673479350887</v>
+        <v>13.06064626348497</v>
       </c>
       <c r="C3">
-        <v>6.40111050838334</v>
+        <v>7.327300951628263</v>
       </c>
       <c r="D3">
-        <v>5.424234103693157</v>
+        <v>8.557519310137183</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>23.82578083590091</v>
+        <v>36.99010089706999</v>
       </c>
       <c r="G3">
-        <v>2.122912299459606</v>
+        <v>3.688087619149918</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>17.28671957206441</v>
+        <v>27.81445593785877</v>
       </c>
       <c r="J3">
-        <v>6.269919177065097</v>
+        <v>10.6636394059248</v>
       </c>
       <c r="K3">
-        <v>9.798814791860499</v>
+        <v>10.2798133488081</v>
       </c>
       <c r="L3">
-        <v>6.976000987681878</v>
+        <v>11.77691754203949</v>
       </c>
       <c r="M3">
-        <v>9.89409156885981</v>
+        <v>15.64926580040314</v>
       </c>
       <c r="N3">
-        <v>13.95183698323642</v>
+        <v>21.33392700332621</v>
       </c>
       <c r="O3">
-        <v>17.79519890344748</v>
+        <v>28.29504439168336</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.5363606771509</v>
+        <v>12.95224757951528</v>
       </c>
       <c r="C4">
-        <v>6.307108047166257</v>
+        <v>7.297678342755244</v>
       </c>
       <c r="D4">
-        <v>5.336715521581649</v>
+        <v>8.553421971404388</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>23.78269600005078</v>
+        <v>37.04718640763265</v>
       </c>
       <c r="G4">
-        <v>2.125588639336988</v>
+        <v>3.689152808600792</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>17.37517563597619</v>
+        <v>27.87066654428886</v>
       </c>
       <c r="J4">
-        <v>6.297667864667112</v>
+        <v>10.67513072527262</v>
       </c>
       <c r="K4">
-        <v>9.390003198780706</v>
+        <v>10.20132677607724</v>
       </c>
       <c r="L4">
-        <v>6.932720903307751</v>
+        <v>11.78367951472343</v>
       </c>
       <c r="M4">
-        <v>9.715879102079718</v>
+        <v>15.6378499011456</v>
       </c>
       <c r="N4">
-        <v>14.06903276799133</v>
+        <v>21.37074810485476</v>
       </c>
       <c r="O4">
-        <v>17.83449268705975</v>
+        <v>28.34745305074139</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.33104590836366</v>
+        <v>12.9083735340066</v>
       </c>
       <c r="C5">
-        <v>6.268304847174219</v>
+        <v>7.285460430676398</v>
       </c>
       <c r="D5">
-        <v>5.301097656038765</v>
+        <v>8.552028649505186</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>23.76892330934628</v>
+        <v>37.07208624985042</v>
       </c>
       <c r="G5">
-        <v>2.126701777235932</v>
+        <v>3.689600692294563</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>17.41348168187064</v>
+        <v>27.8945757584945</v>
       </c>
       <c r="J5">
-        <v>6.309249423929919</v>
+        <v>10.67996933773084</v>
       </c>
       <c r="K5">
-        <v>9.218022872064024</v>
+        <v>10.16957225743996</v>
       </c>
       <c r="L5">
-        <v>6.915613568101748</v>
+        <v>11.78676083134633</v>
       </c>
       <c r="M5">
-        <v>9.643110106616923</v>
+        <v>15.63368729709407</v>
       </c>
       <c r="N5">
-        <v>14.11750425987541</v>
+        <v>21.38617387230296</v>
       </c>
       <c r="O5">
-        <v>17.85318029587767</v>
+        <v>28.36994259799803</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.29662704522277</v>
+        <v>12.90110785063717</v>
       </c>
       <c r="C6">
-        <v>6.261832390806629</v>
+        <v>7.283422916789102</v>
       </c>
       <c r="D6">
-        <v>5.295187658027464</v>
+        <v>8.551814030861788</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>23.76686230538842</v>
+        <v>37.0763196930441</v>
       </c>
       <c r="G6">
-        <v>2.126887982912483</v>
+        <v>3.68967589837171</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>17.41997692020727</v>
+        <v>27.89860645316348</v>
       </c>
       <c r="J6">
-        <v>6.311189115519208</v>
+        <v>10.68078220824033</v>
       </c>
       <c r="K6">
-        <v>9.18914124060962</v>
+        <v>10.16431431183621</v>
       </c>
       <c r="L6">
-        <v>6.91280516358344</v>
+        <v>11.78729217739507</v>
       </c>
       <c r="M6">
-        <v>9.631021199743683</v>
+        <v>15.63302576978566</v>
       </c>
       <c r="N6">
-        <v>14.12559647700817</v>
+        <v>21.38876076390943</v>
       </c>
       <c r="O6">
-        <v>17.85644244216684</v>
+        <v>28.37374536714494</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.53361372626711</v>
+        <v>12.95165459946572</v>
       </c>
       <c r="C7">
-        <v>6.306586709206244</v>
+        <v>7.297514155895465</v>
       </c>
       <c r="D7">
-        <v>5.336234909927618</v>
+        <v>8.553402059301863</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>23.78249505136281</v>
+        <v>37.04751558862992</v>
       </c>
       <c r="G7">
-        <v>2.125603559890419</v>
+        <v>3.689158792944193</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>17.37568318322211</v>
+        <v>27.87098493087813</v>
       </c>
       <c r="J7">
-        <v>6.297822947019053</v>
+        <v>10.6751953490815</v>
       </c>
       <c r="K7">
-        <v>9.387705582600788</v>
+        <v>10.20089754887175</v>
       </c>
       <c r="L7">
-        <v>6.932488031080811</v>
+        <v>11.78371975050514</v>
       </c>
       <c r="M7">
-        <v>9.714898163525621</v>
+        <v>15.63779177608749</v>
       </c>
       <c r="N7">
-        <v>14.06968356153922</v>
+        <v>21.3709544364773</v>
       </c>
       <c r="O7">
-        <v>17.83473399579629</v>
+        <v>28.3477517672131</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.53087020372237</v>
+        <v>13.177196573346</v>
       </c>
       <c r="C8">
-        <v>6.49965174761299</v>
+        <v>7.358400135126574</v>
       </c>
       <c r="D8">
-        <v>5.517641996853246</v>
+        <v>8.562831358503169</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>23.8849405858517</v>
+        <v>36.9347836037031</v>
       </c>
       <c r="G8">
-        <v>2.120132294118988</v>
+        <v>3.686998052243682</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>17.2002415840202</v>
+        <v>27.75790098095894</v>
       </c>
       <c r="J8">
-        <v>6.241239719429563</v>
+        <v>10.65190849995347</v>
       </c>
       <c r="K8">
-        <v>10.21657587988436</v>
+        <v>10.36425183212272</v>
       </c>
       <c r="L8">
-        <v>7.023968100513102</v>
+        <v>11.77081332425482</v>
       </c>
       <c r="M8">
-        <v>10.08346720527243</v>
+        <v>15.66311000147417</v>
       </c>
       <c r="N8">
-        <v>13.82916863327756</v>
+        <v>21.29607069837157</v>
       </c>
       <c r="O8">
-        <v>17.76265357441976</v>
+        <v>28.24299170565647</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.30465498657116</v>
+        <v>13.62505672779766</v>
       </c>
       <c r="C9">
-        <v>6.860798641904704</v>
+        <v>7.472903618635578</v>
       </c>
       <c r="D9">
-        <v>5.87117182730685</v>
+        <v>8.589905989589344</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>24.21163892887346</v>
+        <v>36.76543375648259</v>
       </c>
       <c r="G9">
-        <v>2.110084246100417</v>
+        <v>3.683193420885196</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>16.93281922590003</v>
+        <v>27.56775689692912</v>
       </c>
       <c r="J9">
-        <v>6.138787413508822</v>
+        <v>10.61112731320581</v>
       </c>
       <c r="K9">
-        <v>11.67083435603685</v>
+        <v>10.68918778067135</v>
       </c>
       <c r="L9">
-        <v>7.219295031648231</v>
+        <v>11.75572607461369</v>
       </c>
       <c r="M9">
-        <v>10.79408741067631</v>
+        <v>15.72790496487076</v>
       </c>
       <c r="N9">
-        <v>13.37868292962243</v>
+        <v>21.16241091482969</v>
       </c>
       <c r="O9">
-        <v>17.71228286141282</v>
+        <v>28.07331614942785</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.55569229266113</v>
+        <v>13.95449890314366</v>
       </c>
       <c r="C10">
-        <v>7.114316424373814</v>
+        <v>7.553840023270805</v>
       </c>
       <c r="D10">
-        <v>6.126946478328925</v>
+        <v>8.614914926030689</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>24.53292649271719</v>
+        <v>36.67257918522053</v>
       </c>
       <c r="G10">
-        <v>2.103091667929917</v>
+        <v>3.680659222133679</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>16.78767680680335</v>
+        <v>27.44730290120589</v>
       </c>
       <c r="J10">
-        <v>6.068592160911587</v>
+        <v>10.58411649335439</v>
       </c>
       <c r="K10">
-        <v>12.63491375464914</v>
+        <v>10.92866541028794</v>
       </c>
       <c r="L10">
-        <v>7.371846039231925</v>
+        <v>11.75082692638755</v>
       </c>
       <c r="M10">
-        <v>11.30357570681346</v>
+        <v>15.78449237320316</v>
       </c>
       <c r="N10">
-        <v>13.05942543036495</v>
+        <v>21.07217125151347</v>
       </c>
       <c r="O10">
-        <v>17.73608059305049</v>
+        <v>27.97046957276508</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.11076147903293</v>
+        <v>14.10383584350731</v>
       </c>
       <c r="C11">
-        <v>7.22687822923308</v>
+        <v>7.589924474120552</v>
       </c>
       <c r="D11">
-        <v>6.241951868862489</v>
+        <v>8.627376091310403</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>24.69759155149695</v>
+        <v>36.63719580913988</v>
       </c>
       <c r="G11">
-        <v>2.099989300199423</v>
+        <v>3.679562475136226</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>16.73386640271984</v>
+        <v>27.39667846709832</v>
       </c>
       <c r="J11">
-        <v>6.037737076992945</v>
+        <v>10.57246377191405</v>
       </c>
       <c r="K11">
-        <v>13.05096563865752</v>
+        <v>11.03734286119704</v>
       </c>
       <c r="L11">
-        <v>7.443057672093188</v>
+        <v>11.74993051577171</v>
       </c>
       <c r="M11">
-        <v>11.53166863278918</v>
+        <v>15.81212746904997</v>
       </c>
       <c r="N11">
-        <v>12.91645457220153</v>
+        <v>21.0328305250462</v>
       </c>
       <c r="O11">
-        <v>17.76126325261476</v>
+        <v>27.92842111944178</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.31645159350106</v>
+        <v>14.1602595802339</v>
       </c>
       <c r="C12">
-        <v>7.269090676108939</v>
+        <v>7.60347951639636</v>
       </c>
       <c r="D12">
-        <v>6.285271025351085</v>
+        <v>8.632248227921202</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>24.76266908919299</v>
+        <v>36.62478294950483</v>
       </c>
       <c r="G12">
-        <v>2.09882531057053</v>
+        <v>3.679155186291641</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>16.71534037038163</v>
+        <v>27.37810769136532</v>
       </c>
       <c r="J12">
-        <v>6.02620609499188</v>
+        <v>10.56814202669695</v>
       </c>
       <c r="K12">
-        <v>13.20529243493759</v>
+        <v>11.07842345247748</v>
       </c>
       <c r="L12">
-        <v>7.470271548069353</v>
+        <v>11.74978163245942</v>
       </c>
       <c r="M12">
-        <v>11.61744413669619</v>
+        <v>15.82285901650707</v>
       </c>
       <c r="N12">
-        <v>12.86261662751208</v>
+        <v>21.01817783479503</v>
       </c>
       <c r="O12">
-        <v>17.77295847141752</v>
+        <v>27.91317979277624</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.27235210800543</v>
+        <v>14.14811415932393</v>
       </c>
       <c r="C13">
-        <v>7.260018015496388</v>
+        <v>7.600565119445133</v>
       </c>
       <c r="D13">
-        <v>6.275952291910376</v>
+        <v>8.631192147661917</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>24.74853148441369</v>
+        <v>36.62741242713152</v>
       </c>
       <c r="G13">
-        <v>2.099075523905515</v>
+        <v>3.679242546895055</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>16.71924642327539</v>
+        <v>27.38208057509939</v>
       </c>
       <c r="J13">
-        <v>6.028682713396789</v>
+        <v>10.56906875550098</v>
       </c>
       <c r="K13">
-        <v>13.17219847170401</v>
+        <v>11.06957982333111</v>
       </c>
       <c r="L13">
-        <v>7.464399755585379</v>
+        <v>11.7498052381731</v>
       </c>
       <c r="M13">
-        <v>11.59899848573532</v>
+        <v>15.82053601270828</v>
       </c>
       <c r="N13">
-        <v>12.87419854170531</v>
+        <v>21.0213226836902</v>
       </c>
       <c r="O13">
-        <v>17.77034216639337</v>
+        <v>27.9164319700328</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.12777371804647</v>
+        <v>14.10848068859233</v>
       </c>
       <c r="C14">
-        <v>7.230359411054903</v>
+        <v>7.591041868968394</v>
       </c>
       <c r="D14">
-        <v>6.245520589236897</v>
+        <v>8.627773866511465</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>24.70289062861952</v>
+        <v>36.63615483407542</v>
       </c>
       <c r="G14">
-        <v>2.099893324337611</v>
+        <v>3.679528806610863</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>16.73230460754359</v>
+        <v>27.39513862214974</v>
       </c>
       <c r="J14">
-        <v>6.036785356265669</v>
+        <v>10.57210639993316</v>
       </c>
       <c r="K14">
-        <v>13.06372669477746</v>
+        <v>11.04072425335064</v>
       </c>
       <c r="L14">
-        <v>7.445291689158926</v>
+        <v>11.74991445373844</v>
       </c>
       <c r="M14">
-        <v>11.53873779836306</v>
+        <v>15.81300504648234</v>
       </c>
       <c r="N14">
-        <v>12.91201937618388</v>
+        <v>21.03162013955947</v>
       </c>
       <c r="O14">
-        <v>17.76218161270143</v>
+        <v>27.92715354610488</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.03863019992477</v>
+        <v>14.08418602714176</v>
       </c>
       <c r="C15">
-        <v>7.212138573365137</v>
+        <v>7.585194249159715</v>
       </c>
       <c r="D15">
-        <v>6.226849183341299</v>
+        <v>8.625699964352872</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>24.6752905423299</v>
+        <v>36.64163822265829</v>
       </c>
       <c r="G15">
-        <v>2.100395643427555</v>
+        <v>3.679705192986951</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>16.74054701896193</v>
+        <v>27.40321513432398</v>
       </c>
       <c r="J15">
-        <v>6.041768355135895</v>
+        <v>10.57397887010434</v>
       </c>
       <c r="K15">
-        <v>12.99686536124533</v>
+        <v>11.02303881233065</v>
       </c>
       <c r="L15">
-        <v>7.433619289716726</v>
+        <v>11.75000613822882</v>
       </c>
       <c r="M15">
-        <v>11.50174652985977</v>
+        <v>15.80842668181356</v>
       </c>
       <c r="N15">
-        <v>12.93522435308686</v>
+        <v>21.03795947577438</v>
       </c>
       <c r="O15">
-        <v>17.75746701996603</v>
+        <v>27.93380958286505</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.51878480462997</v>
+        <v>13.94472436468615</v>
       </c>
       <c r="C16">
-        <v>7.106903303051769</v>
+        <v>7.551466723607398</v>
       </c>
       <c r="D16">
-        <v>6.119400235412209</v>
+        <v>8.614122164055816</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>24.52254302655871</v>
+        <v>36.67502955767324</v>
       </c>
       <c r="G16">
-        <v>2.103295954968994</v>
+        <v>3.680732022221574</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>16.79144721033056</v>
+        <v>27.45069523982927</v>
       </c>
       <c r="J16">
-        <v>6.070630140385115</v>
+        <v>10.58489076468638</v>
       </c>
       <c r="K16">
-        <v>12.60727189640067</v>
+        <v>10.9215547531541</v>
       </c>
       <c r="L16">
-        <v>7.367227569102397</v>
+        <v>11.75091223215089</v>
       </c>
       <c r="M16">
-        <v>11.28858918821938</v>
+        <v>15.78272398569391</v>
       </c>
       <c r="N16">
-        <v>13.06881246228739</v>
+        <v>21.07477657325528</v>
       </c>
       <c r="O16">
-        <v>17.73473183338522</v>
+        <v>27.97331288832826</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.19181096004665</v>
+        <v>13.85899716936079</v>
       </c>
       <c r="C17">
-        <v>7.041625571884746</v>
+        <v>7.530585271781189</v>
       </c>
       <c r="D17">
-        <v>6.053111099301709</v>
+        <v>8.607295520639404</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>24.43362314238732</v>
+        <v>36.69727034482803</v>
       </c>
       <c r="G17">
-        <v>2.10509498943478</v>
+        <v>3.681376283303429</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>16.82586724565972</v>
+        <v>27.48089085905978</v>
       </c>
       <c r="J17">
-        <v>6.088610559033059</v>
+        <v>10.59174713793761</v>
       </c>
       <c r="K17">
-        <v>12.36251168089669</v>
+        <v>10.85920489452259</v>
       </c>
       <c r="L17">
-        <v>7.326953772931981</v>
+        <v>11.75180861024522</v>
       </c>
       <c r="M17">
-        <v>11.15683046710978</v>
+        <v>15.76743726810296</v>
       </c>
       <c r="N17">
-        <v>13.15132748546847</v>
+        <v>21.09779981256007</v>
       </c>
       <c r="O17">
-        <v>17.72452901855333</v>
+        <v>27.99876039765378</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.00076656507333</v>
+        <v>13.809642423013</v>
       </c>
       <c r="C18">
-        <v>7.003820054128175</v>
+        <v>7.518505958105896</v>
       </c>
       <c r="D18">
-        <v>6.014858480342999</v>
+        <v>8.603471254278533</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>24.38421772656885</v>
+        <v>36.71070804680741</v>
       </c>
       <c r="G18">
-        <v>2.106137174753761</v>
+        <v>3.681752125303038</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>16.84680863554354</v>
+        <v>27.4986511541308</v>
       </c>
       <c r="J18">
-        <v>6.099053903696172</v>
+        <v>10.59575049946264</v>
       </c>
       <c r="K18">
-        <v>12.21961193415687</v>
+        <v>10.8233203060296</v>
       </c>
       <c r="L18">
-        <v>7.303961037196157</v>
+        <v>11.75244964317237</v>
       </c>
       <c r="M18">
-        <v>11.08070401786338</v>
+        <v>15.75882329401849</v>
       </c>
       <c r="N18">
-        <v>13.19900221546524</v>
+        <v>21.11120316386195</v>
       </c>
       <c r="O18">
-        <v>17.72000631822839</v>
+        <v>28.01384298115069</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.93556951474824</v>
+        <v>13.79292530643378</v>
       </c>
       <c r="C19">
-        <v>6.99097567300561</v>
+        <v>7.514404401254413</v>
       </c>
       <c r="D19">
-        <v>6.001886542754479</v>
+        <v>8.602194059583367</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>24.36778662649876</v>
+        <v>36.71536866155358</v>
       </c>
       <c r="G19">
-        <v>2.106491331174628</v>
+        <v>3.681880286958688</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>16.85409269343464</v>
+        <v>27.50473191415147</v>
       </c>
       <c r="J19">
-        <v>6.102607322868307</v>
+        <v>10.59711624361282</v>
       </c>
       <c r="K19">
-        <v>12.17086403343907</v>
+        <v>10.81116761584196</v>
       </c>
       <c r="L19">
-        <v>7.296205990510384</v>
+        <v>11.7526882635545</v>
       </c>
       <c r="M19">
-        <v>11.05487237074727</v>
+        <v>15.75593757887454</v>
       </c>
       <c r="N19">
-        <v>13.21518154471667</v>
+        <v>21.11576899182035</v>
       </c>
       <c r="O19">
-        <v>17.71870324927856</v>
+        <v>28.01902624855119</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.22692575814799</v>
+        <v>13.8681281864087</v>
       </c>
       <c r="C20">
-        <v>7.048601468226476</v>
+        <v>7.532815292008219</v>
       </c>
       <c r="D20">
-        <v>6.060180893359818</v>
+        <v>8.60801166551709</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>24.44290838370316</v>
+        <v>36.69483597830276</v>
       </c>
       <c r="G20">
-        <v>2.104902713826352</v>
+        <v>3.681307154418222</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>16.82208411617197</v>
+        <v>27.47763585499127</v>
       </c>
       <c r="J20">
-        <v>6.086686022048298</v>
+        <v>10.59101108338803</v>
       </c>
       <c r="K20">
-        <v>12.38878616047104</v>
+        <v>10.86584474235263</v>
       </c>
       <c r="L20">
-        <v>7.331223316187859</v>
+        <v>11.75170021175419</v>
       </c>
       <c r="M20">
-        <v>11.17089236668611</v>
+        <v>15.76904612602066</v>
       </c>
       <c r="N20">
-        <v>13.14252160751164</v>
+        <v>21.09533229504642</v>
       </c>
       <c r="O20">
-        <v>17.72547516641766</v>
+        <v>27.99600532048251</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.17036174819605</v>
+        <v>14.12012584304439</v>
       </c>
       <c r="C21">
-        <v>7.239082156590452</v>
+        <v>7.593842076568929</v>
       </c>
       <c r="D21">
-        <v>6.2544656623925</v>
+        <v>8.628773757487847</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>24.71622210997008</v>
+        <v>36.63356021651998</v>
       </c>
       <c r="G21">
-        <v>2.099652827201543</v>
+        <v>3.67944450768417</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>16.72841810048565</v>
+        <v>27.39128688537353</v>
       </c>
       <c r="J21">
-        <v>6.034401270368959</v>
+        <v>10.57121170641887</v>
       </c>
       <c r="K21">
-        <v>13.09567482267092</v>
+        <v>11.04920209881352</v>
       </c>
       <c r="L21">
-        <v>7.450897579312576</v>
+        <v>11.7498772108031</v>
       </c>
       <c r="M21">
-        <v>11.55645457872111</v>
+        <v>15.81520987969312</v>
       </c>
       <c r="N21">
-        <v>12.90090247423648</v>
+        <v>21.02858889213319</v>
       </c>
       <c r="O21">
-        <v>17.76451921503639</v>
+        <v>27.92398586090604</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.76072804732036</v>
+        <v>14.28405856535726</v>
       </c>
       <c r="C22">
-        <v>7.361164118789428</v>
+        <v>7.633087460561991</v>
       </c>
       <c r="D22">
-        <v>6.380081472884988</v>
+        <v>8.643235622248701</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>24.91074147514918</v>
+        <v>36.59926031924137</v>
       </c>
       <c r="G22">
-        <v>2.096284482923012</v>
+        <v>3.678273921496053</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>16.67803651742073</v>
+        <v>27.33834769909974</v>
       </c>
       <c r="J22">
-        <v>6.001122150243615</v>
+        <v>10.55880126070172</v>
       </c>
       <c r="K22">
-        <v>13.5388906269245</v>
+        <v>11.16859426630466</v>
       </c>
       <c r="L22">
-        <v>7.530548541945889</v>
+        <v>11.74979604560694</v>
       </c>
       <c r="M22">
-        <v>11.80492736337129</v>
+        <v>15.84693258826565</v>
       </c>
       <c r="N22">
-        <v>12.74473912168667</v>
+        <v>20.98639454858802</v>
       </c>
       <c r="O22">
-        <v>17.80266532613665</v>
+        <v>27.88088945983171</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.44802353362632</v>
+        <v>14.19665077627052</v>
       </c>
       <c r="C23">
-        <v>7.296231284249292</v>
+        <v>7.612201191454475</v>
       </c>
       <c r="D23">
-        <v>6.313173781431458</v>
+        <v>8.635436261184655</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>24.80544990037736</v>
+        <v>36.61704097428174</v>
       </c>
       <c r="G23">
-        <v>2.098076658383112</v>
+        <v>3.678894419114861</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>16.70390253710964</v>
+        <v>27.36628260544147</v>
       </c>
       <c r="J23">
-        <v>6.018802793019811</v>
+        <v>10.56537661354609</v>
       </c>
       <c r="K23">
-        <v>13.30405032555668</v>
+        <v>11.10492439249178</v>
       </c>
       <c r="L23">
-        <v>7.487910268005818</v>
+        <v>11.74973812126236</v>
       </c>
       <c r="M23">
-        <v>11.67265535423298</v>
+        <v>15.82986144962641</v>
       </c>
       <c r="N23">
-        <v>12.82793440950608</v>
+        <v>21.00878430572695</v>
       </c>
       <c r="O23">
-        <v>17.78111931644485</v>
+        <v>27.90352724063835</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.21105990100294</v>
+        <v>13.86400026474054</v>
       </c>
       <c r="C24">
-        <v>7.045448525522479</v>
+        <v>7.531807330982063</v>
       </c>
       <c r="D24">
-        <v>6.056985079259122</v>
+        <v>8.607687583307547</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>24.43870518640314</v>
+        <v>36.69593452705639</v>
       </c>
       <c r="G24">
-        <v>2.104989616996539</v>
+        <v>3.68133839061557</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>16.82379088521608</v>
+        <v>27.47910619500324</v>
       </c>
       <c r="J24">
-        <v>6.087555774416828</v>
+        <v>10.59134366192804</v>
       </c>
       <c r="K24">
-        <v>12.37691427145934</v>
+        <v>10.86284298535835</v>
       </c>
       <c r="L24">
-        <v>7.329292552536344</v>
+        <v>11.75174882711991</v>
       </c>
       <c r="M24">
-        <v>11.16453614954875</v>
+        <v>15.76831821719685</v>
       </c>
       <c r="N24">
-        <v>13.14650200891349</v>
+        <v>21.09644733948203</v>
       </c>
       <c r="O24">
-        <v>17.72504323688412</v>
+        <v>27.99724948147938</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.84478620824817</v>
+        <v>13.5036139971973</v>
       </c>
       <c r="C25">
-        <v>6.765097075784539</v>
+        <v>7.442472654285064</v>
       </c>
       <c r="D25">
-        <v>5.776050608096456</v>
+        <v>8.581674060748098</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>24.10929587839346</v>
+        <v>36.80570585527993</v>
       </c>
       <c r="G25">
-        <v>2.112732157636037</v>
+        <v>3.684176639046539</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>16.99649843312437</v>
+        <v>27.61581435705477</v>
       </c>
       <c r="J25">
-        <v>6.165604043297774</v>
+        <v>10.62163956007221</v>
       </c>
       <c r="K25">
-        <v>11.29577124943073</v>
+        <v>10.601005059773</v>
       </c>
       <c r="L25">
-        <v>7.164814904239051</v>
+        <v>11.75871779793538</v>
       </c>
       <c r="M25">
-        <v>10.60371108471482</v>
+        <v>15.70877961185654</v>
       </c>
       <c r="N25">
-        <v>13.49840473421581</v>
+        <v>21.19716587059789</v>
       </c>
       <c r="O25">
-        <v>17.71561995255338</v>
+        <v>28.11538798870364</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_167/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_167/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.23879683272692</v>
+        <v>12.78898152681646</v>
       </c>
       <c r="C2">
-        <v>7.374573703866711</v>
+        <v>6.550830183091712</v>
       </c>
       <c r="D2">
-        <v>8.565971119110056</v>
+        <v>5.566748473356515</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>36.90773688216225</v>
+        <v>23.92102864263413</v>
       </c>
       <c r="G2">
-        <v>3.68644197314729</v>
+        <v>2.118696854656749</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>27.72940133636863</v>
+        <v>17.15772748193939</v>
       </c>
       <c r="J2">
-        <v>10.64593046196853</v>
+        <v>6.226488290910268</v>
       </c>
       <c r="K2">
-        <v>10.40890072525362</v>
+        <v>10.42959340038833</v>
       </c>
       <c r="L2">
-        <v>11.76800971398558</v>
+        <v>7.049856377473425</v>
       </c>
       <c r="M2">
-        <v>15.67100367630393</v>
+        <v>10.18271903529556</v>
       </c>
       <c r="N2">
-        <v>21.27667634020186</v>
+        <v>13.76547546699724</v>
       </c>
       <c r="O2">
-        <v>28.21702627328564</v>
+        <v>17.74908324311893</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.06064626348497</v>
+        <v>12.02673479350885</v>
       </c>
       <c r="C3">
-        <v>7.327300951628263</v>
+        <v>6.401110508383197</v>
       </c>
       <c r="D3">
-        <v>8.557519310137183</v>
+        <v>5.424234103693028</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>36.99010089706999</v>
+        <v>23.82578083590053</v>
       </c>
       <c r="G3">
-        <v>3.688087619149918</v>
+        <v>2.122912299459473</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>27.81445593785877</v>
+        <v>17.28671957206414</v>
       </c>
       <c r="J3">
-        <v>10.6636394059248</v>
+        <v>6.269919177065065</v>
       </c>
       <c r="K3">
-        <v>10.2798133488081</v>
+        <v>9.798814791860549</v>
       </c>
       <c r="L3">
-        <v>11.77691754203949</v>
+        <v>6.976000987681823</v>
       </c>
       <c r="M3">
-        <v>15.64926580040314</v>
+        <v>9.894091568859704</v>
       </c>
       <c r="N3">
-        <v>21.33392700332621</v>
+        <v>13.95183698323632</v>
       </c>
       <c r="O3">
-        <v>28.29504439168336</v>
+        <v>17.79519890344725</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.95224757951528</v>
+        <v>11.53636067715091</v>
       </c>
       <c r="C4">
-        <v>7.297678342755244</v>
+        <v>6.307108047166256</v>
       </c>
       <c r="D4">
-        <v>8.553421971404388</v>
+        <v>5.336715521581649</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>37.04718640763265</v>
+        <v>23.78269600005066</v>
       </c>
       <c r="G4">
-        <v>3.689152808600792</v>
+        <v>2.125588639336853</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>27.87066654428886</v>
+        <v>17.3751756359761</v>
       </c>
       <c r="J4">
-        <v>10.67513072527262</v>
+        <v>6.297667864667142</v>
       </c>
       <c r="K4">
-        <v>10.20132677607724</v>
+        <v>9.390003198780736</v>
       </c>
       <c r="L4">
-        <v>11.78367951472343</v>
+        <v>6.932720903307771</v>
       </c>
       <c r="M4">
-        <v>15.6378499011456</v>
+        <v>9.715879102079715</v>
       </c>
       <c r="N4">
-        <v>21.37074810485476</v>
+        <v>14.0690327679913</v>
       </c>
       <c r="O4">
-        <v>28.34745305074139</v>
+        <v>17.83449268705966</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.9083735340066</v>
+        <v>11.33104590836362</v>
       </c>
       <c r="C5">
-        <v>7.285460430676398</v>
+        <v>6.26830484717433</v>
       </c>
       <c r="D5">
-        <v>8.552028649505186</v>
+        <v>5.301097656038844</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>37.07208624985042</v>
+        <v>23.76892330934583</v>
       </c>
       <c r="G5">
-        <v>3.689600692294563</v>
+        <v>2.12670177723593</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>27.8945757584945</v>
+        <v>17.41348168187028</v>
       </c>
       <c r="J5">
-        <v>10.67996933773084</v>
+        <v>6.309249423929984</v>
       </c>
       <c r="K5">
-        <v>10.16957225743996</v>
+        <v>9.218022872064111</v>
       </c>
       <c r="L5">
-        <v>11.78676083134633</v>
+        <v>6.915613568101771</v>
       </c>
       <c r="M5">
-        <v>15.63368729709407</v>
+        <v>9.643110106616867</v>
       </c>
       <c r="N5">
-        <v>21.38617387230296</v>
+        <v>14.11750425987518</v>
       </c>
       <c r="O5">
-        <v>28.36994259799803</v>
+        <v>17.85318029587724</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.90110785063717</v>
+        <v>11.29662704522273</v>
       </c>
       <c r="C6">
-        <v>7.283422916789102</v>
+        <v>6.261832390806375</v>
       </c>
       <c r="D6">
-        <v>8.551814030861788</v>
+        <v>5.295187658027382</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>37.0763196930441</v>
+        <v>23.7668623053882</v>
       </c>
       <c r="G6">
-        <v>3.68967589837171</v>
+        <v>2.126887982912214</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>27.89860645316348</v>
+        <v>17.4199769202071</v>
       </c>
       <c r="J6">
-        <v>10.68078220824033</v>
+        <v>6.311189115519142</v>
       </c>
       <c r="K6">
-        <v>10.16431431183621</v>
+        <v>9.189141240609652</v>
       </c>
       <c r="L6">
-        <v>11.78729217739507</v>
+        <v>6.912805163583431</v>
       </c>
       <c r="M6">
-        <v>15.63302576978566</v>
+        <v>9.631021199743635</v>
       </c>
       <c r="N6">
-        <v>21.38876076390943</v>
+        <v>14.1255964770081</v>
       </c>
       <c r="O6">
-        <v>28.37374536714494</v>
+        <v>17.8564424421667</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.95165459946572</v>
+        <v>11.53361372626711</v>
       </c>
       <c r="C7">
-        <v>7.297514155895465</v>
+        <v>6.306586709206234</v>
       </c>
       <c r="D7">
-        <v>8.553402059301863</v>
+        <v>5.336234909927751</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>37.04751558862992</v>
+        <v>23.78249505136282</v>
       </c>
       <c r="G7">
-        <v>3.689158792944193</v>
+        <v>2.125603559890553</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>27.87098493087813</v>
+        <v>17.37568318322207</v>
       </c>
       <c r="J7">
-        <v>10.6751953490815</v>
+        <v>6.297822947019055</v>
       </c>
       <c r="K7">
-        <v>10.20089754887175</v>
+        <v>9.387705582600802</v>
       </c>
       <c r="L7">
-        <v>11.78371975050514</v>
+        <v>6.932488031080886</v>
       </c>
       <c r="M7">
-        <v>15.63779177608749</v>
+        <v>9.714898163525616</v>
       </c>
       <c r="N7">
-        <v>21.3709544364773</v>
+        <v>14.06968356153922</v>
       </c>
       <c r="O7">
-        <v>28.3477517672131</v>
+        <v>17.83473399579624</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.177196573346</v>
+        <v>12.53087020372236</v>
       </c>
       <c r="C8">
-        <v>7.358400135126574</v>
+        <v>6.4996517476131</v>
       </c>
       <c r="D8">
-        <v>8.562831358503169</v>
+        <v>5.517641996853164</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>36.9347836037031</v>
+        <v>23.88494058585152</v>
       </c>
       <c r="G8">
-        <v>3.686998052243682</v>
+        <v>2.120132294118988</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>27.75790098095894</v>
+        <v>17.20024158402012</v>
       </c>
       <c r="J8">
-        <v>10.65190849995347</v>
+        <v>6.24123971942966</v>
       </c>
       <c r="K8">
-        <v>10.36425183212272</v>
+        <v>10.21657587988442</v>
       </c>
       <c r="L8">
-        <v>11.77081332425482</v>
+        <v>7.023968100513123</v>
       </c>
       <c r="M8">
-        <v>15.66311000147417</v>
+        <v>10.08346720527241</v>
       </c>
       <c r="N8">
-        <v>21.29607069837157</v>
+        <v>13.82916863327753</v>
       </c>
       <c r="O8">
-        <v>28.24299170565647</v>
+        <v>17.76265357441963</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.62505672779766</v>
+        <v>14.30465498657115</v>
       </c>
       <c r="C9">
-        <v>7.472903618635578</v>
+        <v>6.860798641904791</v>
       </c>
       <c r="D9">
-        <v>8.589905989589344</v>
+        <v>5.87117182730697</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>36.76543375648259</v>
+        <v>24.21163892887328</v>
       </c>
       <c r="G9">
-        <v>3.683193420885196</v>
+        <v>2.110084246100149</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>27.56775689692912</v>
+        <v>16.93281922589992</v>
       </c>
       <c r="J9">
-        <v>10.61112731320581</v>
+        <v>6.138787413508822</v>
       </c>
       <c r="K9">
-        <v>10.68918778067135</v>
+        <v>11.67083435603687</v>
       </c>
       <c r="L9">
-        <v>11.75572607461369</v>
+        <v>7.219295031648221</v>
       </c>
       <c r="M9">
-        <v>15.72790496487076</v>
+        <v>10.79408741067631</v>
       </c>
       <c r="N9">
-        <v>21.16241091482969</v>
+        <v>13.37868292962237</v>
       </c>
       <c r="O9">
-        <v>28.07331614942785</v>
+        <v>17.7122828614127</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.95449890314366</v>
+        <v>15.55569229266113</v>
       </c>
       <c r="C10">
-        <v>7.553840023270805</v>
+        <v>7.114316424373913</v>
       </c>
       <c r="D10">
-        <v>8.614914926030689</v>
+        <v>6.126946478329018</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>36.67257918522053</v>
+        <v>24.53292649271714</v>
       </c>
       <c r="G10">
-        <v>3.680659222133679</v>
+        <v>2.103091667929513</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>27.44730290120589</v>
+        <v>16.78767680680327</v>
       </c>
       <c r="J10">
-        <v>10.58411649335439</v>
+        <v>6.068592160911621</v>
       </c>
       <c r="K10">
-        <v>10.92866541028794</v>
+        <v>12.63491375464918</v>
       </c>
       <c r="L10">
-        <v>11.75082692638755</v>
+        <v>7.37184603923196</v>
       </c>
       <c r="M10">
-        <v>15.78449237320316</v>
+        <v>11.30357570681349</v>
       </c>
       <c r="N10">
-        <v>21.07217125151347</v>
+        <v>13.05942543036488</v>
       </c>
       <c r="O10">
-        <v>27.97046957276508</v>
+        <v>17.73608059305034</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.10383584350731</v>
+        <v>16.11076147903293</v>
       </c>
       <c r="C11">
-        <v>7.589924474120552</v>
+        <v>7.226878229233074</v>
       </c>
       <c r="D11">
-        <v>8.627376091310403</v>
+        <v>6.241951868862485</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>36.63719580913988</v>
+        <v>24.69759155149688</v>
       </c>
       <c r="G11">
-        <v>3.679562475136226</v>
+        <v>2.099989300199557</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>27.39667846709832</v>
+        <v>16.73386640271978</v>
       </c>
       <c r="J11">
-        <v>10.57246377191405</v>
+        <v>6.037737076992912</v>
       </c>
       <c r="K11">
-        <v>11.03734286119704</v>
+        <v>13.05096563865748</v>
       </c>
       <c r="L11">
-        <v>11.74993051577171</v>
+        <v>7.443057672093141</v>
       </c>
       <c r="M11">
-        <v>15.81212746904997</v>
+        <v>11.53166863278918</v>
       </c>
       <c r="N11">
-        <v>21.0328305250462</v>
+        <v>12.91645457220146</v>
       </c>
       <c r="O11">
-        <v>27.92842111944178</v>
+        <v>17.7612632526147</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>14.1602595802339</v>
+        <v>16.31645159350108</v>
       </c>
       <c r="C12">
-        <v>7.60347951639636</v>
+        <v>7.269090676109015</v>
       </c>
       <c r="D12">
-        <v>8.632248227921202</v>
+        <v>6.285271025351014</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>36.62478294950483</v>
+        <v>24.76266908919296</v>
       </c>
       <c r="G12">
-        <v>3.679155186291641</v>
+        <v>2.098825310570531</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>27.37810769136532</v>
+        <v>16.71534037038166</v>
       </c>
       <c r="J12">
-        <v>10.56814202669695</v>
+        <v>6.026206094991945</v>
       </c>
       <c r="K12">
-        <v>11.07842345247748</v>
+        <v>13.20529243493761</v>
       </c>
       <c r="L12">
-        <v>11.74978163245942</v>
+        <v>7.4702715480693</v>
       </c>
       <c r="M12">
-        <v>15.82285901650707</v>
+        <v>11.61744413669618</v>
       </c>
       <c r="N12">
-        <v>21.01817783479503</v>
+        <v>12.86261662751215</v>
       </c>
       <c r="O12">
-        <v>27.91317979277624</v>
+        <v>17.77295847141752</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>14.14811415932393</v>
+        <v>16.27235210800545</v>
       </c>
       <c r="C13">
-        <v>7.600565119445133</v>
+        <v>7.260018015496141</v>
       </c>
       <c r="D13">
-        <v>8.631192147661917</v>
+        <v>6.27595229191039</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>36.62741242713152</v>
+        <v>24.74853148441365</v>
       </c>
       <c r="G13">
-        <v>3.679242546895055</v>
+        <v>2.099075523905784</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>27.38208057509939</v>
+        <v>16.71924642327532</v>
       </c>
       <c r="J13">
-        <v>10.56906875550098</v>
+        <v>6.02868271339679</v>
       </c>
       <c r="K13">
-        <v>11.06957982333111</v>
+        <v>13.172198471704</v>
       </c>
       <c r="L13">
-        <v>11.7498052381731</v>
+        <v>7.464399755585438</v>
       </c>
       <c r="M13">
-        <v>15.82053601270828</v>
+        <v>11.59899848573531</v>
       </c>
       <c r="N13">
-        <v>21.0213226836902</v>
+        <v>12.87419854170528</v>
       </c>
       <c r="O13">
-        <v>27.9164319700328</v>
+        <v>17.77034216639335</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.10848068859233</v>
+        <v>16.12777371804642</v>
       </c>
       <c r="C14">
-        <v>7.591041868968394</v>
+        <v>7.230359411054882</v>
       </c>
       <c r="D14">
-        <v>8.627773866511465</v>
+        <v>6.245520589236859</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>36.63615483407542</v>
+        <v>24.7028906286196</v>
       </c>
       <c r="G14">
-        <v>3.679528806610863</v>
+        <v>2.099893324337745</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>27.39513862214974</v>
+        <v>16.73230460754377</v>
       </c>
       <c r="J14">
-        <v>10.57210639993316</v>
+        <v>6.036785356265765</v>
       </c>
       <c r="K14">
-        <v>11.04072425335064</v>
+        <v>13.06372669477741</v>
       </c>
       <c r="L14">
-        <v>11.74991445373844</v>
+        <v>7.445291689158914</v>
       </c>
       <c r="M14">
-        <v>15.81300504648234</v>
+        <v>11.53873779836308</v>
       </c>
       <c r="N14">
-        <v>21.03162013955947</v>
+        <v>12.91201937618395</v>
       </c>
       <c r="O14">
-        <v>27.92715354610488</v>
+        <v>17.76218161270159</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.08418602714176</v>
+        <v>16.03863019992479</v>
       </c>
       <c r="C15">
-        <v>7.585194249159715</v>
+        <v>7.212138573365018</v>
       </c>
       <c r="D15">
-        <v>8.625699964352872</v>
+        <v>6.226849183341292</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>36.64163822265829</v>
+        <v>24.67529054232985</v>
       </c>
       <c r="G15">
-        <v>3.679705192986951</v>
+        <v>2.100395643427556</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>27.40321513432398</v>
+        <v>16.74054701896187</v>
       </c>
       <c r="J15">
-        <v>10.57397887010434</v>
+        <v>6.041768355135893</v>
       </c>
       <c r="K15">
-        <v>11.02303881233065</v>
+        <v>12.99686536124532</v>
       </c>
       <c r="L15">
-        <v>11.75000613822882</v>
+        <v>7.433619289716739</v>
       </c>
       <c r="M15">
-        <v>15.80842668181356</v>
+        <v>11.50174652985975</v>
       </c>
       <c r="N15">
-        <v>21.03795947577438</v>
+        <v>12.93522435308686</v>
       </c>
       <c r="O15">
-        <v>27.93380958286505</v>
+        <v>17.75746701996602</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>13.94472436468615</v>
+        <v>15.51878480462998</v>
       </c>
       <c r="C16">
-        <v>7.551466723607398</v>
+        <v>7.106903303051866</v>
       </c>
       <c r="D16">
-        <v>8.614122164055816</v>
+        <v>6.119400235412072</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>36.67502955767324</v>
+        <v>24.52254302655844</v>
       </c>
       <c r="G16">
-        <v>3.680732022221574</v>
+        <v>2.103295954969127</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>27.45069523982927</v>
+        <v>16.79144721033044</v>
       </c>
       <c r="J16">
-        <v>10.58489076468638</v>
+        <v>6.070630140385147</v>
       </c>
       <c r="K16">
-        <v>10.9215547531541</v>
+        <v>12.60727189640068</v>
       </c>
       <c r="L16">
-        <v>11.75091223215089</v>
+        <v>7.367227569102313</v>
       </c>
       <c r="M16">
-        <v>15.78272398569391</v>
+        <v>11.28858918821933</v>
       </c>
       <c r="N16">
-        <v>21.07477657325528</v>
+        <v>13.06881246228726</v>
       </c>
       <c r="O16">
-        <v>27.97331288832826</v>
+        <v>17.73473183338511</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>13.85899716936079</v>
+        <v>15.19181096004665</v>
       </c>
       <c r="C17">
-        <v>7.530585271781189</v>
+        <v>7.041625571884738</v>
       </c>
       <c r="D17">
-        <v>8.607295520639404</v>
+        <v>6.053111099301719</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>36.69727034482803</v>
+        <v>24.43362314238734</v>
       </c>
       <c r="G17">
-        <v>3.681376283303429</v>
+        <v>2.105094989435047</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>27.48089085905978</v>
+        <v>16.82586724565977</v>
       </c>
       <c r="J17">
-        <v>10.59174713793761</v>
+        <v>6.088610559033094</v>
       </c>
       <c r="K17">
-        <v>10.85920489452259</v>
+        <v>12.36251168089669</v>
       </c>
       <c r="L17">
-        <v>11.75180861024522</v>
+        <v>7.326953772931947</v>
       </c>
       <c r="M17">
-        <v>15.76743726810296</v>
+        <v>11.15683046710977</v>
       </c>
       <c r="N17">
-        <v>21.09779981256007</v>
+        <v>13.1513274854685</v>
       </c>
       <c r="O17">
-        <v>27.99876039765378</v>
+        <v>17.72452901855337</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>13.809642423013</v>
+        <v>15.00076656507336</v>
       </c>
       <c r="C18">
-        <v>7.518505958105896</v>
+        <v>7.003820054128387</v>
       </c>
       <c r="D18">
-        <v>8.603471254278533</v>
+        <v>6.014858480343031</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>36.71070804680741</v>
+        <v>24.38421772656856</v>
       </c>
       <c r="G18">
-        <v>3.681752125303038</v>
+        <v>2.106137174754028</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>27.4986511541308</v>
+        <v>16.8468086355433</v>
       </c>
       <c r="J18">
-        <v>10.59575049946264</v>
+        <v>6.099053903696204</v>
       </c>
       <c r="K18">
-        <v>10.8233203060296</v>
+        <v>12.21961193415696</v>
       </c>
       <c r="L18">
-        <v>11.75244964317237</v>
+        <v>7.303961037196177</v>
       </c>
       <c r="M18">
-        <v>15.75882329401849</v>
+        <v>11.08070401786335</v>
       </c>
       <c r="N18">
-        <v>21.11120316386195</v>
+        <v>13.19900221546511</v>
       </c>
       <c r="O18">
-        <v>28.01384298115069</v>
+        <v>17.7200063182281</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>13.79292530643378</v>
+        <v>14.93556951474826</v>
       </c>
       <c r="C19">
-        <v>7.514404401254413</v>
+        <v>6.990975673005964</v>
       </c>
       <c r="D19">
-        <v>8.602194059583367</v>
+        <v>6.00188654275453</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>36.71536866155358</v>
+        <v>24.36778662649863</v>
       </c>
       <c r="G19">
-        <v>3.681880286958688</v>
+        <v>2.106491331174762</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>27.50473191415147</v>
+        <v>16.85409269343459</v>
       </c>
       <c r="J19">
-        <v>10.59711624361282</v>
+        <v>6.102607322868402</v>
       </c>
       <c r="K19">
-        <v>10.81116761584196</v>
+        <v>12.17086403343915</v>
       </c>
       <c r="L19">
-        <v>11.7526882635545</v>
+        <v>7.2962059905104</v>
       </c>
       <c r="M19">
-        <v>15.75593757887454</v>
+        <v>11.05487237074726</v>
       </c>
       <c r="N19">
-        <v>21.11576899182035</v>
+        <v>13.21518154471667</v>
       </c>
       <c r="O19">
-        <v>28.01902624855119</v>
+        <v>17.71870324927846</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>13.8681281864087</v>
+        <v>15.226925758148</v>
       </c>
       <c r="C20">
-        <v>7.532815292008219</v>
+        <v>7.048601468226448</v>
       </c>
       <c r="D20">
-        <v>8.60801166551709</v>
+        <v>6.060180893359819</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>36.69483597830276</v>
+        <v>24.44290838370324</v>
       </c>
       <c r="G20">
-        <v>3.681307154418222</v>
+        <v>2.104902713826352</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>27.47763585499127</v>
+        <v>16.82208411617206</v>
       </c>
       <c r="J20">
-        <v>10.59101108338803</v>
+        <v>6.086686022048266</v>
       </c>
       <c r="K20">
-        <v>10.86584474235263</v>
+        <v>12.38878616047102</v>
       </c>
       <c r="L20">
-        <v>11.75170021175419</v>
+        <v>7.331223316187822</v>
       </c>
       <c r="M20">
-        <v>15.76904612602066</v>
+        <v>11.17089236668616</v>
       </c>
       <c r="N20">
-        <v>21.09533229504642</v>
+        <v>13.14252160751164</v>
       </c>
       <c r="O20">
-        <v>27.99600532048251</v>
+        <v>17.72547516641774</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>14.12012584304439</v>
+        <v>16.17036174819603</v>
       </c>
       <c r="C21">
-        <v>7.593842076568929</v>
+        <v>7.239082156590569</v>
       </c>
       <c r="D21">
-        <v>8.628773757487847</v>
+        <v>6.254465662392477</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>36.63356021651998</v>
+        <v>24.71622210997015</v>
       </c>
       <c r="G21">
-        <v>3.67944450768417</v>
+        <v>2.099652827201675</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>27.39128688537353</v>
+        <v>16.72841810048575</v>
       </c>
       <c r="J21">
-        <v>10.57121170641887</v>
+        <v>6.034401270369086</v>
       </c>
       <c r="K21">
-        <v>11.04920209881352</v>
+        <v>13.09567482267089</v>
       </c>
       <c r="L21">
-        <v>11.7498772108031</v>
+        <v>7.450897579312604</v>
       </c>
       <c r="M21">
-        <v>15.81520987969312</v>
+        <v>11.55645457872115</v>
       </c>
       <c r="N21">
-        <v>21.02858889213319</v>
+        <v>12.90090247423652</v>
       </c>
       <c r="O21">
-        <v>27.92398586090604</v>
+        <v>17.76451921503646</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>14.28405856535726</v>
+        <v>16.76072804732041</v>
       </c>
       <c r="C22">
-        <v>7.633087460561991</v>
+        <v>7.361164118789268</v>
       </c>
       <c r="D22">
-        <v>8.643235622248701</v>
+        <v>6.380081472884977</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>36.59926031924137</v>
+        <v>24.91074147514909</v>
       </c>
       <c r="G22">
-        <v>3.678273921496053</v>
+        <v>2.096284482923013</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>27.33834769909974</v>
+        <v>16.67803651742064</v>
       </c>
       <c r="J22">
-        <v>10.55880126070172</v>
+        <v>6.001122150243651</v>
       </c>
       <c r="K22">
-        <v>11.16859426630466</v>
+        <v>13.53889062692454</v>
       </c>
       <c r="L22">
-        <v>11.74979604560694</v>
+        <v>7.530548541945923</v>
       </c>
       <c r="M22">
-        <v>15.84693258826565</v>
+        <v>11.80492736337128</v>
       </c>
       <c r="N22">
-        <v>20.98639454858802</v>
+        <v>12.74473912168664</v>
       </c>
       <c r="O22">
-        <v>27.88088945983171</v>
+        <v>17.80266532613654</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>14.19665077627052</v>
+        <v>16.44802353362637</v>
       </c>
       <c r="C23">
-        <v>7.612201191454475</v>
+        <v>7.29623128424925</v>
       </c>
       <c r="D23">
-        <v>8.635436261184655</v>
+        <v>6.313173781431503</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>36.61704097428174</v>
+        <v>24.80544990037729</v>
       </c>
       <c r="G23">
-        <v>3.678894419114861</v>
+        <v>2.098076658383114</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>27.36628260544147</v>
+        <v>16.70390253710957</v>
       </c>
       <c r="J23">
-        <v>10.56537661354609</v>
+        <v>6.018802793019907</v>
       </c>
       <c r="K23">
-        <v>11.10492439249178</v>
+        <v>13.30405032555672</v>
       </c>
       <c r="L23">
-        <v>11.74973812126236</v>
+        <v>7.48791026800583</v>
       </c>
       <c r="M23">
-        <v>15.82986144962641</v>
+        <v>11.67265535423296</v>
       </c>
       <c r="N23">
-        <v>21.00878430572695</v>
+        <v>12.82793440950608</v>
       </c>
       <c r="O23">
-        <v>27.90352724063835</v>
+        <v>17.78111931644479</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>13.86400026474054</v>
+        <v>15.21105990100295</v>
       </c>
       <c r="C24">
-        <v>7.531807330982063</v>
+        <v>7.045448525522479</v>
       </c>
       <c r="D24">
-        <v>8.607687583307547</v>
+        <v>6.05698507925909</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>36.69593452705639</v>
+        <v>24.43870518640284</v>
       </c>
       <c r="G24">
-        <v>3.68133839061557</v>
+        <v>2.104989616996538</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>27.47910619500324</v>
+        <v>16.82379088521586</v>
       </c>
       <c r="J24">
-        <v>10.59134366192804</v>
+        <v>6.087555774416893</v>
       </c>
       <c r="K24">
-        <v>10.86284298535835</v>
+        <v>12.37691427145938</v>
       </c>
       <c r="L24">
-        <v>11.75174882711991</v>
+        <v>7.329292552536288</v>
       </c>
       <c r="M24">
-        <v>15.76831821719685</v>
+        <v>11.16453614954871</v>
       </c>
       <c r="N24">
-        <v>21.09644733948203</v>
+        <v>13.14650200891339</v>
       </c>
       <c r="O24">
-        <v>27.99724948147938</v>
+        <v>17.72504323688389</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.5036139971973</v>
+        <v>13.84478620824819</v>
       </c>
       <c r="C25">
-        <v>7.442472654285064</v>
+        <v>6.765097075784521</v>
       </c>
       <c r="D25">
-        <v>8.581674060748098</v>
+        <v>5.776050608096368</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>36.80570585527993</v>
+        <v>24.10929587839345</v>
       </c>
       <c r="G25">
-        <v>3.684176639046539</v>
+        <v>2.112732157636037</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>27.61581435705477</v>
+        <v>16.9964984331244</v>
       </c>
       <c r="J25">
-        <v>10.62163956007221</v>
+        <v>6.165604043297806</v>
       </c>
       <c r="K25">
-        <v>10.601005059773</v>
+        <v>11.29577124943071</v>
       </c>
       <c r="L25">
-        <v>11.75871779793538</v>
+        <v>7.164814904239043</v>
       </c>
       <c r="M25">
-        <v>15.70877961185654</v>
+        <v>10.60371108471485</v>
       </c>
       <c r="N25">
-        <v>21.19716587059789</v>
+        <v>13.49840473421581</v>
       </c>
       <c r="O25">
-        <v>28.11538798870364</v>
+        <v>17.7156199525534</v>
       </c>
     </row>
   </sheetData>
